--- a/DocsCampoBahia/documentos_e_certidoes.xlsx
+++ b/DocsCampoBahia/documentos_e_certidoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I550513/projetos_pessoais/campo_bahia_2022/DocsCampoBahia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EEAD77F-0270-7E49-A76F-68FFD22EFF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4736BF0A-F267-B845-B110-D3C3B9B46F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" xr2:uid="{6E7987B6-DACB-0E47-BB96-CD81C9297479}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>Dono</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Marco Antonio Barbosa Filho</t>
   </si>
   <si>
-    <t>Registro de trabalho</t>
-  </si>
-  <si>
     <t>807.800.325-00</t>
   </si>
   <si>
@@ -399,6 +396,42 @@
   </si>
   <si>
     <t>Angella Maria Sa Barbosa</t>
+  </si>
+  <si>
+    <t>Nascimento</t>
+  </si>
+  <si>
+    <t>29/03/1954</t>
+  </si>
+  <si>
+    <t>26/09/1954</t>
+  </si>
+  <si>
+    <t>05/09/1959</t>
+  </si>
+  <si>
+    <t>08/10/1964</t>
+  </si>
+  <si>
+    <t>25/07/1967</t>
+  </si>
+  <si>
+    <t>18/06/1986</t>
+  </si>
+  <si>
+    <t>20/12/1985</t>
+  </si>
+  <si>
+    <t>18/01/1981</t>
+  </si>
+  <si>
+    <t>22/05/1956</t>
+  </si>
+  <si>
+    <t>Registro trabalho</t>
+  </si>
+  <si>
+    <t>CPF Regular</t>
   </si>
 </sst>
 </file>
@@ -496,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -802,11 +835,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -839,8 +898,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,123 +954,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1328,630 +1395,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1B30F6-2BD1-B44A-B6DD-8C74E58C5108}">
-  <dimension ref="A2:K37"/>
+  <dimension ref="A2:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="K3" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="L3" s="102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="25" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="43">
+        <v>0</v>
+      </c>
+      <c r="I4" s="38">
+        <v>0</v>
+      </c>
+      <c r="J4" s="38">
+        <v>0</v>
+      </c>
+      <c r="K4" s="39">
+        <v>0</v>
+      </c>
+      <c r="L4" s="103"/>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="38">
+      <c r="B5" s="97"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="29">
+        <v>122654625</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="36">
         <v>0.5</v>
       </c>
-      <c r="G4" s="45">
+      <c r="H5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="44">
         <v>0</v>
       </c>
-      <c r="H4" s="40">
+      <c r="J5" s="38">
         <v>0</v>
       </c>
-      <c r="I4" s="40">
+      <c r="K5" s="39">
         <v>0</v>
       </c>
-      <c r="J4" s="41">
-        <v>0</v>
-      </c>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="29">
-        <v>122654625</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="46">
-        <v>0</v>
-      </c>
-      <c r="I5" s="40">
-        <v>0</v>
-      </c>
-      <c r="J5" s="41">
-        <v>0</v>
-      </c>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="103"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="68">
+      <c r="F6" s="2"/>
+      <c r="G6" s="64">
         <v>0</v>
       </c>
-      <c r="G6" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="70">
+      <c r="H6" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="72">
         <v>0.25</v>
       </c>
-      <c r="I6" s="76">
+      <c r="J6" s="60">
         <v>0.25</v>
       </c>
-      <c r="J6" s="80">
+      <c r="K6" s="66">
         <v>0.25</v>
       </c>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="104"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F7" s="2"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="104"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="74">
+      <c r="F8" s="4"/>
+      <c r="G8" s="76">
         <v>0</v>
       </c>
-      <c r="G8" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="72">
+      <c r="H8" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="74">
         <v>0.25</v>
       </c>
-      <c r="I8" s="48">
+      <c r="J8" s="46">
         <v>0.25</v>
       </c>
-      <c r="J8" s="41">
+      <c r="K8" s="39">
         <v>0.25</v>
       </c>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="104"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="46">
+      <c r="F9" s="4"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="44">
         <v>0</v>
       </c>
-      <c r="J9" s="41">
+      <c r="K9" s="39">
         <v>0</v>
       </c>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="104"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="68">
+      <c r="F10" s="2"/>
+      <c r="G10" s="64">
         <v>0</v>
       </c>
-      <c r="G10" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="70">
+      <c r="H10" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="72">
         <v>0.25</v>
       </c>
-      <c r="I10" s="76">
+      <c r="J10" s="60">
         <v>0.25</v>
       </c>
-      <c r="J10" s="80">
+      <c r="K10" s="66">
         <v>0.25</v>
       </c>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="104"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F11" s="2"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="104"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="99"/>
+      <c r="C12" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="74">
+      <c r="F12" s="4"/>
+      <c r="G12" s="76">
         <v>0</v>
       </c>
-      <c r="G12" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="72">
+      <c r="H12" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="74">
         <v>0.25</v>
       </c>
-      <c r="I12" s="78">
+      <c r="J12" s="62">
         <v>0.25</v>
       </c>
-      <c r="J12" s="82">
+      <c r="K12" s="68">
         <v>0</v>
       </c>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="105"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13" s="4"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="105"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="68">
+      <c r="E14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="64">
         <v>0</v>
       </c>
-      <c r="G14" s="68">
+      <c r="H14" s="64">
         <v>0</v>
       </c>
-      <c r="H14" s="68">
+      <c r="I14" s="64">
         <v>0</v>
       </c>
-      <c r="I14" s="68">
+      <c r="J14" s="64">
         <v>0</v>
       </c>
-      <c r="J14" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="104"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="16">
+      <c r="E15" s="16">
         <v>932190596</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="104"/>
+    </row>
+    <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="42">
+      <c r="B16" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="40">
         <v>0</v>
       </c>
-      <c r="G16" s="43">
+      <c r="H16" s="41">
         <v>0</v>
       </c>
-      <c r="H16" s="43">
+      <c r="I16" s="41">
         <v>0</v>
       </c>
-      <c r="I16" s="43">
+      <c r="J16" s="41">
         <v>0</v>
       </c>
-      <c r="J16" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="44">
-        <f>SUM(F4:F16)</f>
+      <c r="K16" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="106"/>
+    </row>
+    <row r="17" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="101"/>
+      <c r="G17" s="42">
+        <f>SUM(G4:G16)</f>
         <v>1</v>
       </c>
-      <c r="G17" s="44">
+      <c r="H17" s="42">
         <v>1</v>
       </c>
-      <c r="H17" s="44">
-        <f>SUM(H4:H16)</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="44">
+      <c r="I17" s="42">
         <f>SUM(I4:I16)</f>
         <v>1</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="42">
+        <f>SUM(J4:J16)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>74.457599999999999</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="C19">
-        <v>74.457599999999999</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20">
+      <c r="D20">
         <v>9.3082999999999991</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="59" t="s">
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="62" t="s">
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="62" t="s">
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="84">
+        <v>370452151</v>
+      </c>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="87">
+        <v>363.72019999999998</v>
+      </c>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="97"/>
-      <c r="C28" s="62">
-        <v>370452151</v>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="87">
+        <v>360.10890000000001</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="65">
-        <v>363.72019999999998</v>
-      </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="65">
-        <v>360.10890000000001</v>
-      </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="87">
+        <v>97.361599999999996</v>
+      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="65">
-        <v>97.361599999999996</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="87">
+        <v>3.37</v>
+      </c>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="65">
-        <v>3.37</v>
-      </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="87">
+        <v>35</v>
+      </c>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="65">
-        <v>35</v>
-      </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="87">
+        <v>10.391999999999999</v>
+      </c>
+      <c r="E34" s="88"/>
+      <c r="F34" s="89"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="65">
-        <v>10.391999999999999</v>
-      </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="87">
+        <v>2</v>
+      </c>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+    </row>
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="65">
-        <v>2</v>
-      </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-    </row>
-    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="58"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="21"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="80"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1975,7 +2095,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="21"/>
     </row>
@@ -1984,164 +2104,164 @@
     </row>
     <row r="3" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B4" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="91"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="91"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="51"/>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="91"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="51"/>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="91"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="91"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="91"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="92"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="91"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D13" s="51"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="91"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="95"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" t="s">
         <v>82</v>
-      </c>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="53"/>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="53"/>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="87"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="87"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" t="s">
-        <v>83</v>
       </c>
       <c r="I15" s="21"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
         <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2167,102 +2287,102 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/DocsCampoBahia/documentos_e_certidoes.xlsx
+++ b/DocsCampoBahia/documentos_e_certidoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I550513/projetos_pessoais/campo_bahia_2022/DocsCampoBahia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4736BF0A-F267-B845-B110-D3C3B9B46F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E56C2F-AA7E-B541-AF6D-48B6B978E443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" xr2:uid="{6E7987B6-DACB-0E47-BB96-CD81C9297479}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="149">
   <si>
     <t>Dono</t>
   </si>
@@ -432,13 +432,64 @@
   </si>
   <si>
     <t>CPF Regular</t>
+  </si>
+  <si>
+    <t>Requer nome, endereco, bairro, UF, municipio e CEP</t>
+  </si>
+  <si>
+    <t>https://coletorcafir.receita.fazenda.gov.br/coletor/consulta/consultaCafir.jsf</t>
+  </si>
+  <si>
+    <t>Comprovante de inscricao e situacao cadastral simplificado (usando CCIR do registro como CIB)</t>
+  </si>
+  <si>
+    <t>Divida Ativa</t>
+  </si>
+  <si>
+    <t>debito na receita suspenso, mas o doc diz que ele vale como cert negativa</t>
+  </si>
+  <si>
+    <t>https://cav.receita.fazenda.gov.br/autenticacao/login/index/2</t>
+  </si>
+  <si>
+    <t>https://sistemas.trf1.jus.br/certidao/#/solicitacao</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Processos Civeis</t>
+  </si>
+  <si>
+    <t>Processos Criminais</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>indisponivel</t>
+  </si>
+  <si>
+    <t>insdisponivel</t>
+  </si>
+  <si>
+    <t>Solicitado em trf1</t>
+  </si>
+  <si>
+    <t>homonimia</t>
+  </si>
+  <si>
+    <t>Dividas trabalhistas</t>
+  </si>
+  <si>
+    <t>https://cndt-certidao.tst.jus.br/inicio.faces;jsessionid=ZQv5jv2sNB2d5qJX_OlqjgM-ilTLWJqKvmCM5Dpv.cndt-certidao-25-bl6hb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -508,8 +559,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,8 +596,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -779,17 +859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -836,36 +905,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -905,27 +1001,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,19 +1019,22 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -978,24 +1059,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,13 +1139,82 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1395,17 +1527,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1B30F6-2BD1-B44A-B6DD-8C74E58C5108}">
-  <dimension ref="A2:L37"/>
+  <dimension ref="A2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
@@ -1414,17 +1546,29 @@
     <col min="9" max="9" width="12.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="93"/>
+      <c r="P2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>112</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1436,59 +1580,85 @@
       <c r="F3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="102" t="s">
+      <c r="L3" s="103" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="M3" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="N3" s="115" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="25" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="36">
+      <c r="G4" s="47">
         <v>0.5</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="37">
         <v>0</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="48">
         <v>0</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="48">
         <v>0</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="48">
         <v>0</v>
       </c>
-      <c r="L4" s="103"/>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="L4" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" s="112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="25" t="s">
         <v>73</v>
       </c>
@@ -1496,31 +1666,45 @@
         <v>122654625</v>
       </c>
       <c r="F5" s="28"/>
-      <c r="G5" s="36">
+      <c r="G5" s="47">
         <v>0.5</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="33">
         <v>0.5</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="38">
         <v>0</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="48">
         <v>0</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="103"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="51" t="s">
         <v>113</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1530,31 +1714,45 @@
         <v>4</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="64">
+      <c r="G6" s="59">
         <v>0</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="61">
         <v>0.25</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="55">
         <v>0.25</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="55">
         <v>0.25</v>
       </c>
-      <c r="L6" s="104"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="51" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1564,21 +1762,35 @@
         <v>7</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="104"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G7" s="60"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="40" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1588,31 +1800,45 @@
         <v>16</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="76">
+      <c r="G8" s="65">
         <v>0</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="63">
         <v>0.25</v>
       </c>
       <c r="J8" s="46">
         <v>0.25</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="48">
         <v>0.25</v>
       </c>
-      <c r="L8" s="104"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="40" t="s">
         <v>115</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1622,25 +1848,39 @@
         <v>20</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="44">
+      <c r="G9" s="66"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="38">
         <v>0</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="48">
         <v>0</v>
       </c>
-      <c r="L9" s="104"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="51" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1650,31 +1890,45 @@
         <v>22</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="64">
+      <c r="G10" s="59">
         <v>0</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="61">
         <v>0.25</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="55">
         <v>0.25</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="55">
         <v>0.25</v>
       </c>
-      <c r="L10" s="104"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="51" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1684,19 +1938,33 @@
         <v>25</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="104"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G11" s="60"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="40" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1706,29 +1974,43 @@
         <v>10</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="76">
+      <c r="G12" s="65">
         <v>0</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="63">
         <v>0.25</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="57">
         <v>0.25</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="95">
         <v>0</v>
       </c>
-      <c r="L12" s="105"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
@@ -1736,21 +2018,35 @@
         <v>13</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="105"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G13" s="66"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="N13" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="51" t="s">
         <v>117</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -1762,31 +2058,45 @@
       <c r="F14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="59">
         <v>0</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="59">
         <v>0</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="59">
         <v>0</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="59">
         <v>0</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="K14" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="104"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="51" t="s">
         <v>118</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -1796,21 +2106,35 @@
         <v>932190596</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="104"/>
-    </row>
-    <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="42" t="s">
         <v>119</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -1820,50 +2144,64 @@
       <c r="F16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="34">
         <v>0</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="35">
         <v>0</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="35">
         <v>0</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="35">
         <v>0</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="106"/>
+      <c r="L16" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="100" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="17" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="101"/>
-      <c r="G17" s="42">
+      <c r="B17" s="90"/>
+      <c r="G17" s="36">
         <f>SUM(G4:G16)</f>
         <v>1</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="36">
         <v>1</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="36">
         <f>SUM(I4:I16)</f>
         <v>1</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="36">
         <f>SUM(J4:J16)</f>
         <v>1</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1890,145 +2228,145 @@
       <c r="A25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="81" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="84" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="84" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="84">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="73">
         <v>370452151</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="87">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="76">
         <v>363.72019999999998</v>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="87">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="76">
         <v>360.10890000000001</v>
       </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="87">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="76">
         <v>97.361599999999996</v>
       </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="87">
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="76">
         <v>3.37</v>
       </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="87">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="76">
         <v>35</v>
       </c>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="87">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="76">
         <v>10.391999999999999</v>
       </c>
-      <c r="E34" s="88"/>
-      <c r="F34" s="89"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="87">
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="76">
         <v>2</v>
       </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
     </row>
     <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="78" t="s">
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="69"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D37" s="21"/>
@@ -2036,7 +2374,8 @@
       <c r="F37" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
@@ -2073,16 +2412,23 @@
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="K14:K15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{99AC08D0-6147-D443-B0FB-1C13AAC5F29E}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{A86020C4-C161-5844-8FAE-9FA77319558C}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{49C58F3E-BAAE-7A46-A78F-783F05758D19}"/>
+    <hyperlink ref="N2" r:id="rId4" location="/solicitacao" display="https://sistemas.trf1.jus.br/certidao/#/solicitacao" xr:uid="{D6E8C08A-6CE3-434C-A0E5-CA039162F537}"/>
+    <hyperlink ref="P3" r:id="rId5" xr:uid="{09FB2389-78B0-954E-B0E1-9C90C9A6113B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152CC02B-5407-5A47-9CCC-152F5C09B414}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2118,149 +2464,168 @@
       <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="45"/>
       <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="91"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="40"/>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
       <c r="E6" t="s">
         <v>84</v>
       </c>
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="91"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="51"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>133</v>
+      </c>
       <c r="E7" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="91"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="48" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="43"/>
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="91"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="48" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="43"/>
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="91"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="48" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="43"/>
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="49" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="43"/>
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="43" t="s">
+        <v>138</v>
+      </c>
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="48" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="43"/>
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="91"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="48" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="43"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="50" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="80"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="84"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
+      <c r="I16" s="21"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2268,8 +2633,8 @@
   <mergeCells count="4">
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="B4:B11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DocsCampoBahia/documentos_e_certidoes.xlsx
+++ b/DocsCampoBahia/documentos_e_certidoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I550513/projetos_pessoais/campo_bahia_2022/DocsCampoBahia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E56C2F-AA7E-B541-AF6D-48B6B978E443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7180D9B8-A014-9C47-973A-6F2206D07EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" xr2:uid="{6E7987B6-DACB-0E47-BB96-CD81C9297479}"/>
   </bookViews>
@@ -482,7 +482,7 @@
     <t>Dividas trabalhistas</t>
   </si>
   <si>
-    <t>https://cndt-certidao.tst.jus.br/inicio.faces;jsessionid=ZQv5jv2sNB2d5qJX_OlqjgM-ilTLWJqKvmCM5Dpv.cndt-certidao-25-bl6hb</t>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -1143,6 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,7 +1174,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1B30F6-2BD1-B44A-B6DD-8C74E58C5108}">
   <dimension ref="A2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,11 +1553,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N2" s="94" t="s">
+      <c r="N2" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" t="s">
+      <c r="O2" s="94"/>
+      <c r="P2" s="93" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       <c r="K3" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="115" t="s">
         <v>131</v>
       </c>
       <c r="M3" s="115" t="s">
@@ -1637,13 +1637,13 @@
       <c r="K4" s="48">
         <v>0</v>
       </c>
-      <c r="L4" s="99" t="s">
+      <c r="L4" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="99" t="s">
+      <c r="M4" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="100" t="s">
         <v>142</v>
       </c>
       <c r="O4" s="108" t="s">
@@ -1681,13 +1681,13 @@
       <c r="K5" s="48">
         <v>0</v>
       </c>
-      <c r="L5" s="99" t="s">
+      <c r="L5" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="99" t="s">
+      <c r="M5" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="99" t="s">
+      <c r="N5" s="100" t="s">
         <v>142</v>
       </c>
       <c r="O5" s="108" t="s">
@@ -1729,19 +1729,19 @@
       <c r="K6" s="55">
         <v>0.25</v>
       </c>
-      <c r="L6" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="M6" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="N6" s="100" t="s">
+      <c r="L6" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" s="101" t="s">
         <v>139</v>
       </c>
       <c r="O6" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="P6" s="100" t="s">
+      <c r="P6" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1767,19 +1767,19 @@
       <c r="I7" s="62"/>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
-      <c r="L7" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="M7" s="100" t="s">
+      <c r="L7" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="N7" s="100" t="s">
+      <c r="N7" s="101" t="s">
         <v>139</v>
       </c>
       <c r="O7" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="P7" s="100" t="s">
+      <c r="P7" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1815,19 +1815,19 @@
       <c r="K8" s="48">
         <v>0.25</v>
       </c>
-      <c r="L8" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="M8" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" s="100" t="s">
+      <c r="L8" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" s="101" t="s">
         <v>139</v>
       </c>
       <c r="O8" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="P8" s="100" t="s">
+      <c r="P8" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1857,19 +1857,19 @@
       <c r="K9" s="48">
         <v>0</v>
       </c>
-      <c r="L9" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="100" t="s">
+      <c r="L9" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="101" t="s">
         <v>139</v>
       </c>
       <c r="O9" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="P9" s="100" t="s">
+      <c r="P9" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1905,19 +1905,19 @@
       <c r="K10" s="55">
         <v>0.25</v>
       </c>
-      <c r="L10" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10" s="100" t="s">
+      <c r="L10" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="101" t="s">
         <v>139</v>
       </c>
       <c r="O10" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="P10" s="100" t="s">
+      <c r="P10" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1943,19 +1943,19 @@
       <c r="I11" s="62"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="N11" s="100" t="s">
+      <c r="L11" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="101" t="s">
         <v>139</v>
       </c>
       <c r="O11" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="P11" s="100" t="s">
+      <c r="P11" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       <c r="J12" s="57">
         <v>0.25</v>
       </c>
-      <c r="K12" s="95">
+      <c r="K12" s="96">
         <v>0</v>
       </c>
-      <c r="L12" s="99" t="s">
+      <c r="L12" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="M12" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="N12" s="100" t="s">
+      <c r="M12" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" s="101" t="s">
         <v>139</v>
       </c>
       <c r="O12" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="P12" s="100" t="s">
+      <c r="P12" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2022,20 +2022,20 @@
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
       <c r="J13" s="58"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="99" t="s">
+      <c r="K13" s="97"/>
+      <c r="L13" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="M13" s="102" t="s">
+      <c r="M13" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="N13" s="102" t="s">
+      <c r="N13" s="103" t="s">
         <v>146</v>
       </c>
       <c r="O13" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="P13" s="100" t="s">
+      <c r="P13" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2070,22 +2070,22 @@
       <c r="J14" s="59">
         <v>0</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="N14" s="100" t="s">
+      <c r="L14" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="101" t="s">
         <v>139</v>
       </c>
       <c r="O14" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="P14" s="100" t="s">
+      <c r="P14" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2110,20 +2110,20 @@
       <c r="H15" s="60"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="N15" s="100" t="s">
+      <c r="K15" s="99"/>
+      <c r="L15" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="101" t="s">
         <v>139</v>
       </c>
       <c r="O15" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="P15" s="100" t="s">
+      <c r="P15" s="101" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2171,11 +2171,11 @@
       <c r="O16" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="P16" s="100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="90"/>
       <c r="G17" s="36">
         <f>SUM(G4:G16)</f>
@@ -2196,14 +2196,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -2223,8 +2223,11 @@
         <v>9.3082999999999991</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="93"/>
+    </row>
+    <row r="24" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>33</v>
       </c>
@@ -2236,7 +2239,7 @@
       <c r="E25" s="71"/>
       <c r="F25" s="72"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>35</v>
       </c>
@@ -2248,7 +2251,7 @@
       <c r="E26" s="74"/>
       <c r="F26" s="75"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>37</v>
       </c>
@@ -2260,7 +2263,7 @@
       <c r="E27" s="74"/>
       <c r="F27" s="75"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
@@ -2272,7 +2275,7 @@
       <c r="E28" s="74"/>
       <c r="F28" s="75"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2287,7 @@
       <c r="E29" s="77"/>
       <c r="F29" s="78"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>40</v>
       </c>
@@ -2296,7 +2299,7 @@
       <c r="E30" s="77"/>
       <c r="F30" s="78"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>42</v>
       </c>
@@ -2308,7 +2311,7 @@
       <c r="E31" s="77"/>
       <c r="F31" s="78"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>43</v>
       </c>
@@ -2418,6 +2421,8 @@
     <hyperlink ref="O3" r:id="rId3" xr:uid="{49C58F3E-BAAE-7A46-A78F-783F05758D19}"/>
     <hyperlink ref="N2" r:id="rId4" location="/solicitacao" display="https://sistemas.trf1.jus.br/certidao/#/solicitacao" xr:uid="{D6E8C08A-6CE3-434C-A0E5-CA039162F537}"/>
     <hyperlink ref="P3" r:id="rId5" xr:uid="{09FB2389-78B0-954E-B0E1-9C90C9A6113B}"/>
+    <hyperlink ref="L3" r:id="rId6" xr:uid="{38100B99-BB20-9A4C-B71D-F90EA7D75775}"/>
+    <hyperlink ref="P2" r:id="rId7" xr:uid="{66E8C75C-CAFA-C54E-8808-5A2D2C61A227}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2428,7 +2433,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
